--- a/data/evaluation/evaluation_South_Autumn_Beets.xlsx
+++ b/data/evaluation/evaluation_South_Autumn_Beets.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5631.838655442301</v>
+        <v>5601.048675663874</v>
       </c>
       <c r="C4" t="n">
-        <v>292697974.0818688</v>
+        <v>295238419.2619873</v>
       </c>
       <c r="D4" t="n">
-        <v>17108.41822267239</v>
+        <v>17182.50328857781</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05750195317834617</v>
+        <v>0.04932162795460715</v>
       </c>
     </row>
     <row r="5">
